--- a/src/analysis_examples/circadb/results_jtk/cosinor_10563350_fut2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10563350_fut2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.19595698449652899, 0.31243712241113]</t>
+          <t>[0.1963766856641283, 0.31201742124353066]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.027175922097001e-08</v>
+        <v>9.087319563505503e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.027175922097001e-08</v>
+        <v>9.087319563505503e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.144684410317002</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.45290511754084833, 0.5155297492295481]</t>
+          <t>[0.4529014370769424, 0.515533429693454]</t>
         </is>
       </c>
       <c r="U2" t="n">
